--- a/src/assets/excel/scat.xlsx
+++ b/src/assets/excel/scat.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Documents\work\devel\scboard24\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E19435-DDE9-4271-BE57-A8BEC4E6AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E912E-DBC0-4C7B-902E-2FF20BBC92FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="1545" windowWidth="21225" windowHeight="18450" activeTab="1" xr2:uid="{6F31E8A0-2164-4382-BEC2-B5A345AB5843}"/>
+    <workbookView xWindow="6030" yWindow="1290" windowWidth="25665" windowHeight="18450" activeTab="1" xr2:uid="{6F31E8A0-2164-4382-BEC2-B5A345AB5843}"/>
   </bookViews>
   <sheets>
     <sheet name="3월" sheetId="1" r:id="rId1"/>
     <sheet name="4월" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$D$144</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="148">
   <si>
     <t>듀이카</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +74,426 @@
   <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유서인</t>
+  </si>
+  <si>
+    <t>강남</t>
+  </si>
+  <si>
+    <t>서준혁</t>
+  </si>
+  <si>
+    <t>전서영</t>
+  </si>
+  <si>
+    <t>김나원</t>
+  </si>
+  <si>
+    <t>일산</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>듀이카</t>
+  </si>
+  <si>
+    <t>박진형</t>
+  </si>
+  <si>
+    <t>어석민</t>
+  </si>
+  <si>
+    <t>노원</t>
+  </si>
+  <si>
+    <t>정민욱</t>
+  </si>
+  <si>
+    <t>홍승리</t>
+  </si>
+  <si>
+    <t>안정연</t>
+  </si>
+  <si>
+    <t>김유민</t>
+  </si>
+  <si>
+    <t>정다훈</t>
+  </si>
+  <si>
+    <t>조준우</t>
+  </si>
+  <si>
+    <t>방대성</t>
+  </si>
+  <si>
+    <t>박성수</t>
+  </si>
+  <si>
+    <t>김민서_N</t>
+  </si>
+  <si>
+    <t>홍서영</t>
+  </si>
+  <si>
+    <t>유능한</t>
+  </si>
+  <si>
+    <t>김승찬</t>
+  </si>
+  <si>
+    <t>김윤지</t>
+  </si>
+  <si>
+    <t>김홍주</t>
+  </si>
+  <si>
+    <t>정수환</t>
+  </si>
+  <si>
+    <t>김보담</t>
+  </si>
+  <si>
+    <t>홍윤기</t>
+  </si>
+  <si>
+    <t>송동욱</t>
+  </si>
+  <si>
+    <t>유호경</t>
+  </si>
+  <si>
+    <t>이경근</t>
+  </si>
+  <si>
+    <t>임도경</t>
+  </si>
+  <si>
+    <t>박시원</t>
+  </si>
+  <si>
+    <t>임재혁</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>백태경</t>
+  </si>
+  <si>
+    <t>나하진</t>
+  </si>
+  <si>
+    <t>김연호</t>
+  </si>
+  <si>
+    <t>엄정현</t>
+  </si>
+  <si>
+    <t>조강현</t>
+  </si>
+  <si>
+    <t>이재윤</t>
+  </si>
+  <si>
+    <t>서효리</t>
+  </si>
+  <si>
+    <t>최정훈</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>윤아영</t>
+  </si>
+  <si>
+    <t>선지우</t>
+  </si>
+  <si>
+    <t>서정열</t>
+  </si>
+  <si>
+    <t>홍석훈</t>
+  </si>
+  <si>
+    <t>서준서</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>최선필</t>
+  </si>
+  <si>
+    <t>감효정</t>
+  </si>
+  <si>
+    <t>정승민</t>
+  </si>
+  <si>
+    <t>박수민</t>
+  </si>
+  <si>
+    <t>김윤주</t>
+  </si>
+  <si>
+    <t>이주호</t>
+  </si>
+  <si>
+    <t>곽병준</t>
+  </si>
+  <si>
+    <t>송영원</t>
+  </si>
+  <si>
+    <t>김태영(여)</t>
+  </si>
+  <si>
+    <t>조제현</t>
+  </si>
+  <si>
+    <t>전주빈</t>
+  </si>
+  <si>
+    <t>정하진</t>
+  </si>
+  <si>
+    <t>심지현</t>
+  </si>
+  <si>
+    <t>한성빈</t>
+  </si>
+  <si>
+    <t>서동석</t>
+  </si>
+  <si>
+    <t>한나래</t>
+  </si>
+  <si>
+    <t>김준성</t>
+  </si>
+  <si>
+    <t>안지호</t>
+  </si>
+  <si>
+    <t>김혜빈</t>
+  </si>
+  <si>
+    <t>이승빈</t>
+  </si>
+  <si>
+    <t>이동희</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>김진형</t>
+  </si>
+  <si>
+    <t>김재림</t>
+  </si>
+  <si>
+    <t>유해미</t>
+  </si>
+  <si>
+    <t>김재혁</t>
+  </si>
+  <si>
+    <t>조현호</t>
+  </si>
+  <si>
+    <t>이의정</t>
+  </si>
+  <si>
+    <t>권영웅</t>
+  </si>
+  <si>
+    <t>전선희</t>
+  </si>
+  <si>
+    <t>백승우</t>
+  </si>
+  <si>
+    <t>박준혁</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>김근호</t>
+  </si>
+  <si>
+    <t>문해찬</t>
+  </si>
+  <si>
+    <t>이효우</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>김기범_N</t>
+  </si>
+  <si>
+    <t>김예림</t>
+  </si>
+  <si>
+    <t>강연경</t>
+  </si>
+  <si>
+    <t>김도린</t>
+  </si>
+  <si>
+    <t>김보경</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>유수화</t>
+  </si>
+  <si>
+    <t>권수빈</t>
+  </si>
+  <si>
+    <t>이도경</t>
+  </si>
+  <si>
+    <t>최민서</t>
+  </si>
+  <si>
+    <t>임성수</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>남여진</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>김준형</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>황보효진</t>
+  </si>
+  <si>
+    <t>류시현</t>
+  </si>
+  <si>
+    <t>임정호</t>
+  </si>
+  <si>
+    <t>박효정</t>
+  </si>
+  <si>
+    <t>손혜린</t>
+  </si>
+  <si>
+    <t>최서연</t>
+  </si>
+  <si>
+    <t>이정필</t>
+  </si>
+  <si>
+    <t>김윤성</t>
+  </si>
+  <si>
+    <t>김태현</t>
+  </si>
+  <si>
+    <t>김승수</t>
+  </si>
+  <si>
+    <t>이정운</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>유민주</t>
+  </si>
+  <si>
+    <t>고영규</t>
+  </si>
+  <si>
+    <t>이재건</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>김준호</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>이동헌</t>
+  </si>
+  <si>
+    <t>유지연</t>
+  </si>
+  <si>
+    <t>인서준</t>
+  </si>
+  <si>
+    <t>최준원</t>
+  </si>
+  <si>
+    <t>주성연</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>손주희</t>
+  </si>
+  <si>
+    <t>장승원</t>
+  </si>
+  <si>
+    <t>이지은</t>
+  </si>
+  <si>
+    <t>최준우</t>
+  </si>
+  <si>
+    <t>지유경</t>
+  </si>
+  <si>
+    <t>장윤서</t>
+  </si>
+  <si>
+    <t>정세영</t>
+  </si>
+  <si>
+    <t>김기범_D</t>
+  </si>
+  <si>
+    <t>고은지</t>
+  </si>
+  <si>
+    <t>노혜림</t>
+  </si>
+  <si>
+    <t>노규빈</t>
+  </si>
+  <si>
+    <t>곽태원</t>
   </si>
 </sst>
 </file>
@@ -114,15 +539,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +883,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,14 +899,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1"/>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1474,24 +1896,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6B7BDF-1D99-4EFF-905C-65CAB6648AD7}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1556,10 +1976,2879 @@
       </c>
       <c r="K3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>67.5</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>67.5</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>52.5</v>
+      </c>
+      <c r="H5">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <v>67.5</v>
+      </c>
+      <c r="K5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>67.5</v>
+      </c>
+      <c r="B6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>57.5</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+      <c r="J6">
+        <v>77.5</v>
+      </c>
+      <c r="K6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>96</v>
+      </c>
+      <c r="G7">
+        <v>67.5</v>
+      </c>
+      <c r="H7">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>57.5</v>
+      </c>
+      <c r="E8">
+        <v>92</v>
+      </c>
+      <c r="G8">
+        <v>67.5</v>
+      </c>
+      <c r="H8">
+        <v>88</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>92</v>
+      </c>
+      <c r="G9">
+        <v>67.5</v>
+      </c>
+      <c r="H9">
+        <v>88</v>
+      </c>
+      <c r="J9">
+        <v>85</v>
+      </c>
+      <c r="K9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>57.5</v>
+      </c>
+      <c r="H10">
+        <v>88</v>
+      </c>
+      <c r="J10">
+        <v>72.5</v>
+      </c>
+      <c r="K10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>82.5</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>84</v>
+      </c>
+      <c r="J11">
+        <v>67.5</v>
+      </c>
+      <c r="K11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>82.5</v>
+      </c>
+      <c r="E12">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>84</v>
+      </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>80</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>47.5</v>
+      </c>
+      <c r="E15">
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>32.5</v>
+      </c>
+      <c r="H15">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>52.5</v>
+      </c>
+      <c r="K15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>57.5</v>
+      </c>
+      <c r="B16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>47.5</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>84</v>
+      </c>
+      <c r="G17">
+        <v>57.5</v>
+      </c>
+      <c r="H17">
+        <v>72</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>72</v>
+      </c>
+      <c r="J18">
+        <v>72.5</v>
+      </c>
+      <c r="K18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>57.5</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>77.5</v>
+      </c>
+      <c r="H19">
+        <v>72</v>
+      </c>
+      <c r="J19">
+        <v>65</v>
+      </c>
+      <c r="K19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>57.5</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>67.5</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>52.5</v>
+      </c>
+      <c r="H20">
+        <v>72</v>
+      </c>
+      <c r="J20">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+      <c r="G21">
+        <v>65</v>
+      </c>
+      <c r="H21">
+        <v>64</v>
+      </c>
+      <c r="J21">
+        <v>55</v>
+      </c>
+      <c r="K21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>62.5</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="G22">
+        <v>67.5</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>52.5</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>57.5</v>
+      </c>
+      <c r="H23">
+        <v>56</v>
+      </c>
+      <c r="J23">
+        <v>82.5</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <v>52.5</v>
+      </c>
+      <c r="H24">
+        <v>52</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>72.5</v>
+      </c>
+      <c r="E25">
+        <v>76</v>
+      </c>
+      <c r="G25">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>76</v>
+      </c>
+      <c r="G26">
+        <v>47.5</v>
+      </c>
+      <c r="H26">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>47.5</v>
+      </c>
+      <c r="K26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <v>72</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>57.5</v>
+      </c>
+      <c r="K27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>52.5</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>52.5</v>
+      </c>
+      <c r="E28">
+        <v>72</v>
+      </c>
+      <c r="G28">
+        <v>95</v>
+      </c>
+      <c r="H28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>57.5</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>52.5</v>
+      </c>
+      <c r="E29">
+        <v>68</v>
+      </c>
+      <c r="G29">
+        <v>47.5</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+      <c r="J29">
+        <v>70</v>
+      </c>
+      <c r="K29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>37.5</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>72.5</v>
+      </c>
+      <c r="E30">
+        <v>68</v>
+      </c>
+      <c r="G30">
+        <v>57.5</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>77.5</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>62.5</v>
+      </c>
+      <c r="E31">
+        <v>64</v>
+      </c>
+      <c r="J31">
+        <v>27.5</v>
+      </c>
+      <c r="K31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>64</v>
+      </c>
+      <c r="J32">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>52.5</v>
+      </c>
+      <c r="E35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>67.5</v>
+      </c>
+      <c r="E36">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>47.5</v>
+      </c>
+      <c r="E39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>47.5</v>
+      </c>
+      <c r="E40">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>37.5</v>
+      </c>
+      <c r="E43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>52.5</v>
+      </c>
+      <c r="E44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>37.5</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>72.5</v>
+      </c>
+      <c r="E46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>62.5</v>
+      </c>
+      <c r="E47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>57.5</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>27.5</v>
+      </c>
+      <c r="E52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>37.5</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79881C3E-ECB4-487B-BDC1-32ACB61409D0}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>67.5</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>67.5</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>67.5</v>
+      </c>
+      <c r="D10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>67.5</v>
+      </c>
+      <c r="D13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>57.5</v>
+      </c>
+      <c r="D14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>52.5</v>
+      </c>
+      <c r="D16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>77.5</v>
+      </c>
+      <c r="D17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>82.5</v>
+      </c>
+      <c r="D19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>82.5</v>
+      </c>
+      <c r="D20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>57.5</v>
+      </c>
+      <c r="D22">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>67.5</v>
+      </c>
+      <c r="D23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>67.5</v>
+      </c>
+      <c r="D24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>67.5</v>
+      </c>
+      <c r="D25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>57.5</v>
+      </c>
+      <c r="D26">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>47.5</v>
+      </c>
+      <c r="D28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>57.5</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>67.5</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>62.5</v>
+      </c>
+      <c r="D39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>52.5</v>
+      </c>
+      <c r="D40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>78</v>
+      </c>
+      <c r="D44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>85</v>
+      </c>
+      <c r="D46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>72.5</v>
+      </c>
+      <c r="D47">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>67.5</v>
+      </c>
+      <c r="D48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>72.5</v>
+      </c>
+      <c r="D50">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>32.5</v>
+      </c>
+      <c r="D52">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>47.5</v>
+      </c>
+      <c r="D53">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>60</v>
+      </c>
+      <c r="D56">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>52.5</v>
+      </c>
+      <c r="D57">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>57.5</v>
+      </c>
+      <c r="D58">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>45</v>
+      </c>
+      <c r="D59">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>77.5</v>
+      </c>
+      <c r="D60">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>52.5</v>
+      </c>
+      <c r="D61">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>52.5</v>
+      </c>
+      <c r="D64">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>52.5</v>
+      </c>
+      <c r="D65">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>72.5</v>
+      </c>
+      <c r="D66">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>60</v>
+      </c>
+      <c r="D67">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>62.5</v>
+      </c>
+      <c r="D69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>55</v>
+      </c>
+      <c r="D70">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>75</v>
+      </c>
+      <c r="D72">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>52.5</v>
+      </c>
+      <c r="D73">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>67.5</v>
+      </c>
+      <c r="D74">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>65</v>
+      </c>
+      <c r="D75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>65</v>
+      </c>
+      <c r="D76">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+      <c r="D78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="D79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>67.5</v>
+      </c>
+      <c r="D80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>47.5</v>
+      </c>
+      <c r="D81">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>57.5</v>
+      </c>
+      <c r="D82">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>45</v>
+      </c>
+      <c r="D83">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84">
+        <v>57.5</v>
+      </c>
+      <c r="D84">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>72.5</v>
+      </c>
+      <c r="D85">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>65</v>
+      </c>
+      <c r="D86">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>47.5</v>
+      </c>
+      <c r="D87">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>50</v>
+      </c>
+      <c r="D88">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>52.5</v>
+      </c>
+      <c r="D89">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>70</v>
+      </c>
+      <c r="D90">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>40</v>
+      </c>
+      <c r="D91">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92">
+        <v>70</v>
+      </c>
+      <c r="D92">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>35</v>
+      </c>
+      <c r="D93">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>55</v>
+      </c>
+      <c r="D94">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95">
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>37.5</v>
+      </c>
+      <c r="D96">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>57.5</v>
+      </c>
+      <c r="D98">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <v>60</v>
+      </c>
+      <c r="D99">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100">
+        <v>82.5</v>
+      </c>
+      <c r="D100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>50</v>
+      </c>
+      <c r="D101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>52.5</v>
+      </c>
+      <c r="D103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>37.5</v>
+      </c>
+      <c r="D104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>35</v>
+      </c>
+      <c r="D105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>25</v>
+      </c>
+      <c r="D106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>47.5</v>
+      </c>
+      <c r="D107">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>47.5</v>
+      </c>
+      <c r="D108">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>57.5</v>
+      </c>
+      <c r="D110">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>45</v>
+      </c>
+      <c r="D111">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>70</v>
+      </c>
+      <c r="D112">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>72.5</v>
+      </c>
+      <c r="D113">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>62.5</v>
+      </c>
+      <c r="D114">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>57.5</v>
+      </c>
+      <c r="D115">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117">
+        <v>95</v>
+      </c>
+      <c r="D117">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118">
+        <v>47.5</v>
+      </c>
+      <c r="D118">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <v>25</v>
+      </c>
+      <c r="D119">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>130</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120">
+        <v>65</v>
+      </c>
+      <c r="D120">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <v>55</v>
+      </c>
+      <c r="D121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>75</v>
+      </c>
+      <c r="D122">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>50</v>
+      </c>
+      <c r="D123">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>27.5</v>
+      </c>
+      <c r="D124">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>55</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>25</v>
+      </c>
+      <c r="D126">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>60</v>
+      </c>
+      <c r="D127">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>27.5</v>
+      </c>
+      <c r="D128">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>35</v>
+      </c>
+      <c r="D129">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>52.5</v>
+      </c>
+      <c r="D130">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>57.5</v>
+      </c>
+      <c r="D131">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>45</v>
+      </c>
+      <c r="D132">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>37.5</v>
+      </c>
+      <c r="D133">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>45</v>
+      </c>
+      <c r="D134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>37.5</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>57.5</v>
+      </c>
+      <c r="D136">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <v>77.5</v>
+      </c>
+      <c r="D137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <autoFilter ref="A1:D144" xr:uid="{79881C3E-ECB4-487B-BDC1-32ACB61409D0}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="일산"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/assets/excel/scat.xlsx
+++ b/src/assets/excel/scat.xlsx
@@ -1,48 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Documents\work\devel\scboard24\scboard24\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\pwang\devel\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52E912E-DBC0-4C7B-902E-2FF20BBC92FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C27FB-632D-4DC3-A635-733230EBFC2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1290" windowWidth="25665" windowHeight="18450" activeTab="1" xr2:uid="{6F31E8A0-2164-4382-BEC2-B5A345AB5843}"/>
+    <workbookView xWindow="6030" yWindow="1290" windowWidth="25665" windowHeight="18450" activeTab="2" xr2:uid="{6F31E8A0-2164-4382-BEC2-B5A345AB5843}"/>
   </bookViews>
   <sheets>
     <sheet name="3월" sheetId="1" r:id="rId1"/>
     <sheet name="4월" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="5월" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$D$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$D$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$D$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="140">
   <si>
     <t>듀이카</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,15 +211,9 @@
     <t>서정열</t>
   </si>
   <si>
-    <t>홍석훈</t>
-  </si>
-  <si>
     <t>서준서</t>
   </si>
   <si>
-    <t>이수현</t>
-  </si>
-  <si>
     <t>최선필</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
     <t>김윤주</t>
   </si>
   <si>
-    <t>이주호</t>
-  </si>
-  <si>
     <t>곽병준</t>
   </si>
   <si>
@@ -280,12 +262,6 @@
     <t>김준성</t>
   </si>
   <si>
-    <t>안지호</t>
-  </si>
-  <si>
-    <t>김혜빈</t>
-  </si>
-  <si>
     <t>이승빈</t>
   </si>
   <si>
@@ -304,9 +280,6 @@
     <t>유해미</t>
   </si>
   <si>
-    <t>김재혁</t>
-  </si>
-  <si>
     <t>조현호</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t>김예림</t>
   </si>
   <si>
-    <t>강연경</t>
-  </si>
-  <si>
     <t>김도린</t>
   </si>
   <si>
@@ -376,9 +346,6 @@
     <t>김미소</t>
   </si>
   <si>
-    <t>남여진</t>
-  </si>
-  <si>
     <t>김도연</t>
   </si>
   <si>
@@ -400,9 +367,6 @@
     <t>박효정</t>
   </si>
   <si>
-    <t>손혜린</t>
-  </si>
-  <si>
     <t>최서연</t>
   </si>
   <si>
@@ -415,9 +379,6 @@
     <t>김태현</t>
   </si>
   <si>
-    <t>김승수</t>
-  </si>
-  <si>
     <t>이정운</t>
   </si>
   <si>
@@ -430,9 +391,6 @@
     <t>고영규</t>
   </si>
   <si>
-    <t>이재건</t>
-  </si>
-  <si>
     <t>최윤서</t>
   </si>
   <si>
@@ -460,9 +418,6 @@
     <t>김예은</t>
   </si>
   <si>
-    <t>손주희</t>
-  </si>
-  <si>
     <t>장승원</t>
   </si>
   <si>
@@ -472,12 +427,6 @@
     <t>최준우</t>
   </si>
   <si>
-    <t>지유경</t>
-  </si>
-  <si>
-    <t>장윤서</t>
-  </si>
-  <si>
     <t>정세영</t>
   </si>
   <si>
@@ -487,13 +436,31 @@
     <t>고은지</t>
   </si>
   <si>
-    <t>노혜림</t>
-  </si>
-  <si>
-    <t>노규빈</t>
-  </si>
-  <si>
-    <t>곽태원</t>
+    <t>조민혁</t>
+  </si>
+  <si>
+    <t>이주호_D</t>
+  </si>
+  <si>
+    <t>심은지</t>
+  </si>
+  <si>
+    <t>이희명</t>
+  </si>
+  <si>
+    <t>장한별</t>
+  </si>
+  <si>
+    <t>김재성</t>
+  </si>
+  <si>
+    <t>백은서</t>
+  </si>
+  <si>
+    <t>이선우</t>
+  </si>
+  <si>
+    <t>윤영환</t>
   </si>
 </sst>
 </file>
@@ -1898,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6B7BDF-1D99-4EFF-905C-65CAB6648AD7}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2905,12 +2872,964 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199395D8-33D2-49B3-8367-EBEB7BA5220D}">
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>96</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>62.5</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="J4">
+        <v>65</v>
+      </c>
+      <c r="K4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>96</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>57.5</v>
+      </c>
+      <c r="K5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>92</v>
+      </c>
+      <c r="G6">
+        <v>42.5</v>
+      </c>
+      <c r="H6">
+        <v>84</v>
+      </c>
+      <c r="J6">
+        <v>70</v>
+      </c>
+      <c r="K6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>88</v>
+      </c>
+      <c r="G7">
+        <v>52.5</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>57.5</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>82.5</v>
+      </c>
+      <c r="E8">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>52.5</v>
+      </c>
+      <c r="H8">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>82.5</v>
+      </c>
+      <c r="K8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>87.5</v>
+      </c>
+      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>67.5</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>57.5</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>57.5</v>
+      </c>
+      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>77.5</v>
+      </c>
+      <c r="E10">
+        <v>84</v>
+      </c>
+      <c r="G10">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>57.5</v>
+      </c>
+      <c r="K10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>62.5</v>
+      </c>
+      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>77.5</v>
+      </c>
+      <c r="E11">
+        <v>84</v>
+      </c>
+      <c r="G11">
+        <v>67.5</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>55</v>
+      </c>
+      <c r="K11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>52.5</v>
+      </c>
+      <c r="B12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>85</v>
+      </c>
+      <c r="E12">
+        <v>84</v>
+      </c>
+      <c r="G12">
+        <v>47.5</v>
+      </c>
+      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="J12">
+        <v>77.5</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>62.5</v>
+      </c>
+      <c r="B13">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>82.5</v>
+      </c>
+      <c r="E13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>72.5</v>
+      </c>
+      <c r="K13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>72</v>
+      </c>
+      <c r="J15">
+        <v>67.5</v>
+      </c>
+      <c r="K15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>76</v>
+      </c>
+      <c r="G16">
+        <v>65</v>
+      </c>
+      <c r="H16">
+        <v>72</v>
+      </c>
+      <c r="J16">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>32.5</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>37.5</v>
+      </c>
+      <c r="E17">
+        <v>72</v>
+      </c>
+      <c r="G17">
+        <v>62.5</v>
+      </c>
+      <c r="H17">
+        <v>68</v>
+      </c>
+      <c r="J17">
+        <v>57.5</v>
+      </c>
+      <c r="K17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>42.5</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>57.5</v>
+      </c>
+      <c r="E18">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>62.5</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>60</v>
+      </c>
+      <c r="K18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>52.5</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>67.5</v>
+      </c>
+      <c r="E19">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>42.5</v>
+      </c>
+      <c r="K19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>68</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>56</v>
+      </c>
+      <c r="J20">
+        <v>62.5</v>
+      </c>
+      <c r="K20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <v>52</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>32.5</v>
+      </c>
+      <c r="E22">
+        <v>68</v>
+      </c>
+      <c r="G22">
+        <v>82.5</v>
+      </c>
+      <c r="H22">
+        <v>48</v>
+      </c>
+      <c r="J22">
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>27.5</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>52.5</v>
+      </c>
+      <c r="E23">
+        <v>68</v>
+      </c>
+      <c r="G23">
+        <v>47.5</v>
+      </c>
+      <c r="H23">
+        <v>48</v>
+      </c>
+      <c r="J23">
+        <v>42.5</v>
+      </c>
+      <c r="K23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>37.5</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>47.5</v>
+      </c>
+      <c r="E24">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>48</v>
+      </c>
+      <c r="J24">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <v>57.5</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <v>52.5</v>
+      </c>
+      <c r="K25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>64</v>
+      </c>
+      <c r="G26">
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>62.5</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="G27">
+        <v>42.5</v>
+      </c>
+      <c r="H27">
+        <v>28</v>
+      </c>
+      <c r="J27">
+        <v>52.5</v>
+      </c>
+      <c r="K27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27.5</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>32.5</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <v>42.5</v>
+      </c>
+      <c r="K28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>47.5</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="G29">
+        <v>42.5</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>27.5</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>72.5</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="J30">
+        <v>45</v>
+      </c>
+      <c r="K30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>72.5</v>
+      </c>
+      <c r="E31">
+        <v>56</v>
+      </c>
+      <c r="J31">
+        <v>42.5</v>
+      </c>
+      <c r="K31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>52</v>
+      </c>
+      <c r="J32">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>62.5</v>
+      </c>
+      <c r="E35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>37.5</v>
+      </c>
+      <c r="E37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>55</v>
+      </c>
+      <c r="E38">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>47.5</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>65</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>32.5</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>52.5</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>60</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79881C3E-ECB4-487B-BDC1-32ACB61409D0}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D136"/>
+      <selection activeCell="C6" sqref="C6:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2931,13 +3850,13 @@
     </row>
     <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -2945,212 +3864,212 @@
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>90</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>67.5</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6">
-        <v>67.5</v>
+        <v>62.5</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>67.5</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>82.5</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="D12">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>67.5</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>57.5</v>
+        <v>42.5</v>
       </c>
       <c r="D14">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>77.5</v>
       </c>
       <c r="D15">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>52.5</v>
+        <v>77.5</v>
       </c>
       <c r="D16">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>77.5</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3161,52 +4080,52 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>75</v>
+        <v>82.5</v>
       </c>
       <c r="D18">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>82.5</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>82.5</v>
+        <v>57.5</v>
       </c>
       <c r="D20">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3217,995 +4136,995 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>57.5</v>
+        <v>52.5</v>
       </c>
       <c r="D22">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>67.5</v>
+        <v>52.5</v>
       </c>
       <c r="D23">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24">
-        <v>67.5</v>
+        <v>57.5</v>
       </c>
       <c r="D24">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25">
-        <v>67.5</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26">
-        <v>57.5</v>
+        <v>67.5</v>
       </c>
       <c r="D26">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D27">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>47.5</v>
       </c>
       <c r="D28">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>50</v>
       </c>
       <c r="D29">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D31">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="D32">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>87.5</v>
       </c>
       <c r="D33">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>57.5</v>
       </c>
       <c r="D34">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>62.5</v>
+      </c>
+      <c r="D35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
         <v>45</v>
       </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>70</v>
-      </c>
-      <c r="D35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
-        <v>57.5</v>
-      </c>
       <c r="D36">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>67.5</v>
+        <v>65</v>
       </c>
       <c r="D37">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38">
-        <v>85</v>
+        <v>37.5</v>
       </c>
       <c r="D38">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39">
-        <v>62.5</v>
+        <v>57.5</v>
       </c>
       <c r="D39">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40">
-        <v>52.5</v>
+        <v>67.5</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>70</v>
       </c>
       <c r="D41">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>52.5</v>
+      </c>
+      <c r="D42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>62.5</v>
+      </c>
+      <c r="D43">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
         <v>13</v>
       </c>
-      <c r="C42">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43">
-        <v>50</v>
-      </c>
-      <c r="D43">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
       <c r="C44">
-        <v>78</v>
+        <v>62.5</v>
       </c>
       <c r="D44">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
         <v>55</v>
       </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45">
-        <v>40</v>
-      </c>
       <c r="D45">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D46">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>72.5</v>
+        <v>32.5</v>
       </c>
       <c r="D47">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C48">
-        <v>67.5</v>
+        <v>52.5</v>
       </c>
       <c r="D48">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>72.5</v>
+        <v>82.5</v>
       </c>
       <c r="D50">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="C51">
-        <v>75</v>
-      </c>
-      <c r="D51">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
       <c r="C52">
-        <v>32.5</v>
+        <v>47.5</v>
       </c>
       <c r="D52">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>47.5</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>70</v>
+      </c>
+      <c r="D54">
         <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54">
-        <v>50</v>
-      </c>
-      <c r="D54">
-        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>57.5</v>
       </c>
       <c r="D55">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D56">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>52.5</v>
+        <v>65</v>
       </c>
       <c r="D57">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>57.5</v>
+        <v>55</v>
       </c>
       <c r="D58">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59">
-        <v>45</v>
+        <v>62.5</v>
       </c>
       <c r="D59">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60">
-        <v>77.5</v>
+        <v>55</v>
       </c>
       <c r="D60">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>52.5</v>
+        <v>60</v>
       </c>
       <c r="D61">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>32.5</v>
       </c>
       <c r="D62">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>47.5</v>
       </c>
       <c r="D63">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>52.5</v>
+        <v>72.5</v>
       </c>
       <c r="D64">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C65">
-        <v>52.5</v>
+        <v>77.5</v>
       </c>
       <c r="D65">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C66">
         <v>72.5</v>
       </c>
       <c r="D66">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D67">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>72.5</v>
       </c>
       <c r="D68">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C69">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="D69">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C70">
-        <v>55</v>
+        <v>67.5</v>
       </c>
       <c r="D70">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D71">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>75</v>
+        <v>32.5</v>
       </c>
       <c r="D72">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C73">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="D73">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74">
-        <v>67.5</v>
+        <v>60</v>
       </c>
       <c r="D74">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D75">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D76">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
       </c>
       <c r="C77">
-        <v>25</v>
+        <v>57.5</v>
       </c>
       <c r="D77">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>82.5</v>
       </c>
       <c r="D78">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C79">
-        <v>30</v>
+        <v>47.5</v>
       </c>
       <c r="D79">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80">
-        <v>67.5</v>
+        <v>40</v>
       </c>
       <c r="D80">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81">
-        <v>47.5</v>
+        <v>55</v>
       </c>
       <c r="D81">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>57.5</v>
+        <v>62.5</v>
       </c>
       <c r="D82">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C83">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D83">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="D84">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
       <c r="C85">
-        <v>72.5</v>
+        <v>42.5</v>
       </c>
       <c r="D85">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
       </c>
       <c r="C86">
-        <v>65</v>
+        <v>62.5</v>
       </c>
       <c r="D86">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
       <c r="C87">
-        <v>47.5</v>
+        <v>37.5</v>
       </c>
       <c r="D87">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s">
         <v>9</v>
       </c>
       <c r="C88">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D88">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>52.5</v>
+        <v>47.5</v>
       </c>
       <c r="D89">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D90">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D91">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>70</v>
+        <v>42.5</v>
       </c>
       <c r="D92">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
         <v>18</v>
@@ -4219,97 +5138,97 @@
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>55</v>
+        <v>42.5</v>
       </c>
       <c r="D94">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="D95">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>37.5</v>
+        <v>57.5</v>
       </c>
       <c r="D96">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C97">
         <v>35</v>
       </c>
       <c r="D97">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>57.5</v>
+        <v>35</v>
       </c>
       <c r="D98">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C99">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D99">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>82.5</v>
+        <v>32.5</v>
       </c>
       <c r="D100">
         <v>40</v>
@@ -4317,111 +5236,111 @@
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D101">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D102">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>52.5</v>
+        <v>70</v>
       </c>
       <c r="D103">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
       </c>
       <c r="C104">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="D104">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C105">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D105">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C106">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D106">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
       </c>
       <c r="C107">
-        <v>47.5</v>
+        <v>52.5</v>
       </c>
       <c r="D107">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C108">
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="D108">
         <v>36</v>
@@ -4429,27 +5348,27 @@
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>30</v>
+        <v>52.5</v>
       </c>
       <c r="D109">
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C110">
-        <v>57.5</v>
+        <v>45</v>
       </c>
       <c r="D110">
         <v>32</v>
@@ -4457,13 +5376,13 @@
     </row>
     <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
       <c r="C111">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="D111">
         <v>32</v>
@@ -4471,377 +5390,258 @@
     </row>
     <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C112">
-        <v>70</v>
+        <v>27.5</v>
       </c>
       <c r="D112">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C113">
-        <v>72.5</v>
+        <v>37.5</v>
       </c>
       <c r="D113">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C114">
-        <v>62.5</v>
+        <v>42.5</v>
       </c>
       <c r="D114">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
       </c>
       <c r="C115">
-        <v>57.5</v>
+        <v>30</v>
       </c>
       <c r="D115">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C116">
-        <v>25</v>
+        <v>27.5</v>
       </c>
       <c r="D116">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C117">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D117">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C118">
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="D118">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
       </c>
       <c r="C119">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D119">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
       </c>
       <c r="C120">
-        <v>65</v>
+        <v>62.5</v>
       </c>
       <c r="D120">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C121">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D121">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>75</v>
+        <v>52.5</v>
       </c>
       <c r="D122">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
         <v>18</v>
       </c>
       <c r="C123">
-        <v>50</v>
+        <v>42.5</v>
       </c>
       <c r="D123">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <v>27.5</v>
       </c>
       <c r="D124">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>55</v>
+        <v>42.5</v>
       </c>
       <c r="D125">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
       </c>
       <c r="C126">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D126">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D127">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>27.5</v>
+        <v>45</v>
       </c>
       <c r="D128">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>9</v>
       </c>
       <c r="C129">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D129">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>140</v>
-      </c>
-      <c r="B130" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130">
-        <v>52.5</v>
-      </c>
-      <c r="D130">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>141</v>
-      </c>
-      <c r="B131" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131">
-        <v>57.5</v>
-      </c>
-      <c r="D131">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>142</v>
-      </c>
-      <c r="B132" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132">
-        <v>45</v>
-      </c>
-      <c r="D132">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133">
-        <v>37.5</v>
-      </c>
-      <c r="D133">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>144</v>
-      </c>
-      <c r="B134" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134">
-        <v>45</v>
-      </c>
-      <c r="D134">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>145</v>
-      </c>
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135">
-        <v>37.5</v>
-      </c>
-      <c r="D135">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>146</v>
-      </c>
-      <c r="B136" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136">
-        <v>57.5</v>
-      </c>
-      <c r="D136">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>147</v>
-      </c>
-      <c r="B137" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137">
-        <v>77.5</v>
-      </c>
-      <c r="D137">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:D144" xr:uid="{79881C3E-ECB4-487B-BDC1-32ACB61409D0}">
+  <autoFilter ref="A1:D129" xr:uid="{C8037E90-D56C-4A6A-AB5A-19EB98AA2A67}">
     <filterColumn colId="1">
       <filters>
         <filter val="일산"/>

--- a/src/assets/excel/scat.xlsx
+++ b/src/assets/excel/scat.xlsx
@@ -1,39 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\pwang\devel\scboard24\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Documents\work\devel\scboard24\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C27FB-632D-4DC3-A635-733230EBFC2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039E5BB5-ABC3-44D1-89E0-96F4AE604DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1290" windowWidth="25665" windowHeight="18450" activeTab="2" xr2:uid="{6F31E8A0-2164-4382-BEC2-B5A345AB5843}"/>
+    <workbookView xWindow="12645" yWindow="1605" windowWidth="25980" windowHeight="18225" activeTab="3" xr2:uid="{6F31E8A0-2164-4382-BEC2-B5A345AB5843}"/>
   </bookViews>
   <sheets>
     <sheet name="3월" sheetId="1" r:id="rId1"/>
     <sheet name="4월" sheetId="2" r:id="rId2"/>
     <sheet name="5월" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="6월" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$D$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$D$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$D$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$D$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$D$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="143">
   <si>
     <t>듀이카</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,9 +89,6 @@
     <t>서준혁</t>
   </si>
   <si>
-    <t>전서영</t>
-  </si>
-  <si>
     <t>김나원</t>
   </si>
   <si>
@@ -175,9 +185,6 @@
     <t>이지원</t>
   </si>
   <si>
-    <t>백태경</t>
-  </si>
-  <si>
     <t>나하진</t>
   </si>
   <si>
@@ -205,9 +212,6 @@
     <t>윤아영</t>
   </si>
   <si>
-    <t>선지우</t>
-  </si>
-  <si>
     <t>서정열</t>
   </si>
   <si>
@@ -217,9 +221,6 @@
     <t>최선필</t>
   </si>
   <si>
-    <t>감효정</t>
-  </si>
-  <si>
     <t>정승민</t>
   </si>
   <si>
@@ -268,9 +269,6 @@
     <t>이동희</t>
   </si>
   <si>
-    <t>박서진</t>
-  </si>
-  <si>
     <t>김진형</t>
   </si>
   <si>
@@ -286,9 +284,6 @@
     <t>이의정</t>
   </si>
   <si>
-    <t>권영웅</t>
-  </si>
-  <si>
     <t>전선희</t>
   </si>
   <si>
@@ -304,9 +299,6 @@
     <t>김근호</t>
   </si>
   <si>
-    <t>문해찬</t>
-  </si>
-  <si>
     <t>이효우</t>
   </si>
   <si>
@@ -319,15 +311,9 @@
     <t>김예림</t>
   </si>
   <si>
-    <t>김도린</t>
-  </si>
-  <si>
     <t>김보경</t>
   </si>
   <si>
-    <t>김동현</t>
-  </si>
-  <si>
     <t>유수화</t>
   </si>
   <si>
@@ -385,24 +371,15 @@
     <t>김서현</t>
   </si>
   <si>
-    <t>유민주</t>
-  </si>
-  <si>
     <t>고영규</t>
   </si>
   <si>
-    <t>최윤서</t>
-  </si>
-  <si>
     <t>김준호</t>
   </si>
   <si>
     <t>이용재</t>
   </si>
   <si>
-    <t>이동헌</t>
-  </si>
-  <si>
     <t>유지연</t>
   </si>
   <si>
@@ -424,24 +401,12 @@
     <t>이지은</t>
   </si>
   <si>
-    <t>최준우</t>
-  </si>
-  <si>
-    <t>정세영</t>
-  </si>
-  <si>
     <t>김기범_D</t>
   </si>
   <si>
     <t>고은지</t>
   </si>
   <si>
-    <t>조민혁</t>
-  </si>
-  <si>
-    <t>이주호_D</t>
-  </si>
-  <si>
     <t>심은지</t>
   </si>
   <si>
@@ -454,20 +419,77 @@
     <t>김재성</t>
   </si>
   <si>
-    <t>백은서</t>
-  </si>
-  <si>
-    <t>이선우</t>
-  </si>
-  <si>
-    <t>윤영환</t>
+    <t>전서영_N</t>
+  </si>
+  <si>
+    <t>한예준</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>김혜빈</t>
+  </si>
+  <si>
+    <t>오지원</t>
+  </si>
+  <si>
+    <t>노규빈</t>
+  </si>
+  <si>
+    <t>서원빈</t>
+  </si>
+  <si>
+    <t>박인수</t>
+  </si>
+  <si>
+    <t>조영우</t>
+  </si>
+  <si>
+    <t>홍석훈</t>
+  </si>
+  <si>
+    <t>이유나_N</t>
+  </si>
+  <si>
+    <t>김장훈</t>
+  </si>
+  <si>
+    <t>김다희</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>이승원</t>
+  </si>
+  <si>
+    <t>김윤하</t>
+  </si>
+  <si>
+    <t>최윤서_I</t>
+  </si>
+  <si>
+    <t>김재혁</t>
+  </si>
+  <si>
+    <t>이재건</t>
+  </si>
+  <si>
+    <t>김강언</t>
+  </si>
+  <si>
+    <t>임승하</t>
+  </si>
+  <si>
+    <t>최동훈</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +505,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="한컴 말랑말랑 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,12 +521,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -506,12 +550,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2875,7 +2922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199395D8-33D2-49B3-8367-EBEB7BA5220D}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3824,12 +3871,981 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0F8FF9-D0A9-4C3D-9215-F73E7977C0CF}">
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>57.5</v>
+      </c>
+      <c r="E4">
+        <v>96</v>
+      </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>87.5</v>
+      </c>
+      <c r="K4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>52.5</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>84</v>
+      </c>
+      <c r="G6">
+        <v>95</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+      <c r="J6">
+        <v>57.5</v>
+      </c>
+      <c r="K6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32.5</v>
+      </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>84</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <v>52.5</v>
+      </c>
+      <c r="K7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>52.5</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>72.5</v>
+      </c>
+      <c r="E8">
+        <v>84</v>
+      </c>
+      <c r="G8">
+        <v>65</v>
+      </c>
+      <c r="H8">
+        <v>84</v>
+      </c>
+      <c r="J8">
+        <v>67.5</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>62.5</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>67.5</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>42.5</v>
+      </c>
+      <c r="H10">
+        <v>72</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>77.5</v>
+      </c>
+      <c r="E11">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>67.5</v>
+      </c>
+      <c r="E12">
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>57.5</v>
+      </c>
+      <c r="E13">
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>68</v>
+      </c>
+      <c r="J13">
+        <v>72.5</v>
+      </c>
+      <c r="K13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>57.5</v>
+      </c>
+      <c r="E14">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>32.5</v>
+      </c>
+      <c r="K14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>52.5</v>
+      </c>
+      <c r="E15">
+        <v>72</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>62.5</v>
+      </c>
+      <c r="K15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>42.5</v>
+      </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>68</v>
+      </c>
+      <c r="G16">
+        <v>45</v>
+      </c>
+      <c r="H16">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>52.5</v>
+      </c>
+      <c r="E17">
+        <v>68</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>62.5</v>
+      </c>
+      <c r="K17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>27.5</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>68</v>
+      </c>
+      <c r="G18">
+        <v>57.5</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>47.5</v>
+      </c>
+      <c r="K18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>52.5</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>52.5</v>
+      </c>
+      <c r="E19">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <v>70</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>72.5</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>47.5</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>64</v>
+      </c>
+      <c r="G20">
+        <v>47.5</v>
+      </c>
+      <c r="H20">
+        <v>56</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>47.5</v>
+      </c>
+      <c r="E21">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>52.5</v>
+      </c>
+      <c r="H21">
+        <v>52</v>
+      </c>
+      <c r="J21">
+        <v>47.5</v>
+      </c>
+      <c r="K21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>37.5</v>
+      </c>
+      <c r="E22">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <v>52</v>
+      </c>
+      <c r="J22">
+        <v>67.5</v>
+      </c>
+      <c r="K22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>64</v>
+      </c>
+      <c r="G23">
+        <v>62.5</v>
+      </c>
+      <c r="H23">
+        <v>52</v>
+      </c>
+      <c r="J23">
+        <v>52.5</v>
+      </c>
+      <c r="K23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>32.5</v>
+      </c>
+      <c r="H24">
+        <v>48</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>62.5</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>65</v>
+      </c>
+      <c r="H25">
+        <v>48</v>
+      </c>
+      <c r="J25">
+        <v>65</v>
+      </c>
+      <c r="K25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>57.5</v>
+      </c>
+      <c r="H26">
+        <v>44</v>
+      </c>
+      <c r="J26">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="G27">
+        <v>57.5</v>
+      </c>
+      <c r="H27">
+        <v>44</v>
+      </c>
+      <c r="J27">
+        <v>37.5</v>
+      </c>
+      <c r="K27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>67.5</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <v>72.5</v>
+      </c>
+      <c r="H28">
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>56</v>
+      </c>
+      <c r="G29">
+        <v>47.5</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>56</v>
+      </c>
+      <c r="G30">
+        <v>42.5</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>32.5</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="J31">
+        <v>67.5</v>
+      </c>
+      <c r="K31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>42.5</v>
+      </c>
+      <c r="E32">
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>28</v>
+      </c>
+      <c r="J32">
+        <v>52.5</v>
+      </c>
+      <c r="K32">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>52</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>24</v>
+      </c>
+      <c r="J33">
+        <v>35</v>
+      </c>
+      <c r="K33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>37.5</v>
+      </c>
+      <c r="E34">
+        <v>52</v>
+      </c>
+      <c r="J34">
+        <v>37.5</v>
+      </c>
+      <c r="K34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>47.5</v>
+      </c>
+      <c r="E35">
+        <v>48</v>
+      </c>
+      <c r="J35">
+        <v>72.5</v>
+      </c>
+      <c r="K35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>32.5</v>
+      </c>
+      <c r="E36">
+        <v>48</v>
+      </c>
+      <c r="J36">
+        <v>37.5</v>
+      </c>
+      <c r="K36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <v>48</v>
+      </c>
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>44</v>
+      </c>
+      <c r="J38">
+        <v>52.5</v>
+      </c>
+      <c r="K38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>57.5</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>42.5</v>
+      </c>
+      <c r="E44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>67.5</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>52.5</v>
+      </c>
+      <c r="E46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>45</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79881C3E-ECB4-487B-BDC1-32ACB61409D0}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D125"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3848,866 +4864,866 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>57.5</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>70</v>
       </c>
       <c r="D3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>67</v>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="D6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="D7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
+      <c r="A9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>77.5</v>
       </c>
       <c r="D9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>67.5</v>
       </c>
       <c r="D10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>82.5</v>
+        <v>57.5</v>
       </c>
       <c r="D11">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>67.5</v>
+        <v>57.5</v>
       </c>
       <c r="D12">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>52.5</v>
+      </c>
+      <c r="D13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
-        <v>65</v>
-      </c>
-      <c r="D13">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>42.5</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>77.5</v>
+        <v>52.5</v>
       </c>
       <c r="D15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>77.5</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>52.5</v>
       </c>
       <c r="D17">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <v>82.5</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>47.5</v>
       </c>
       <c r="D19">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>57.5</v>
+        <v>37.5</v>
       </c>
       <c r="D20">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
+      <c r="A22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>52.5</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>65</v>
+      <c r="A23" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>52.5</v>
+        <v>62.5</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
+      <c r="A24" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>57.5</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>34</v>
+      <c r="A25" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>35</v>
+      <c r="A26" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>67.5</v>
       </c>
       <c r="D26">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
+      <c r="A28" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>47.5</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>42.5</v>
+      </c>
+      <c r="D30">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30">
-        <v>60</v>
-      </c>
-      <c r="D30">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>25</v>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D31">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>37.5</v>
+      </c>
+      <c r="D32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>47.5</v>
+      </c>
+      <c r="D33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>32.5</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
         <v>57.5</v>
       </c>
-      <c r="D32">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>87.5</v>
-      </c>
-      <c r="D33">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>57.5</v>
-      </c>
-      <c r="D34">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>62.5</v>
-      </c>
-      <c r="D35">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36">
-        <v>45</v>
-      </c>
-      <c r="D36">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="D37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37">
-        <v>65</v>
-      </c>
-      <c r="D37">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39">
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>42.5</v>
+      </c>
+      <c r="D42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
         <v>67.5</v>
       </c>
-      <c r="D40">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41">
-        <v>70</v>
-      </c>
-      <c r="D41">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42">
+      <c r="D43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
         <v>52.5</v>
       </c>
-      <c r="D42">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43">
-        <v>62.5</v>
-      </c>
-      <c r="D43">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44">
-        <v>62.5</v>
-      </c>
       <c r="D44">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>87.5</v>
+      </c>
+      <c r="D49">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>57.5</v>
+      </c>
+      <c r="D51">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52">
         <v>52.5</v>
       </c>
-      <c r="D48">
+      <c r="D52">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>67.5</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>72.5</v>
+      </c>
+      <c r="D58">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49">
-        <v>60</v>
-      </c>
-      <c r="D49">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>32.5</v>
+      </c>
+      <c r="D59">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>82.5</v>
-      </c>
-      <c r="D50">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>62.5</v>
+      </c>
+      <c r="D60">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <v>30</v>
-      </c>
-      <c r="D51">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
         <v>64</v>
       </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52">
-        <v>47.5</v>
-      </c>
-      <c r="D52">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62">
+        <v>62.5</v>
+      </c>
+      <c r="D62">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>40</v>
-      </c>
-      <c r="D53">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>70</v>
-      </c>
-      <c r="D54">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55">
-        <v>57.5</v>
-      </c>
-      <c r="D55">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56">
-        <v>55</v>
-      </c>
-      <c r="D56">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57">
-        <v>65</v>
-      </c>
-      <c r="D57">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58">
-        <v>55</v>
-      </c>
-      <c r="D58">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59">
-        <v>62.5</v>
-      </c>
-      <c r="D59">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60">
-        <v>55</v>
-      </c>
-      <c r="D60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62">
-        <v>32.5</v>
-      </c>
-      <c r="D62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>37</v>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>47.5</v>
@@ -4716,12 +5732,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>77</v>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>72.5</v>
@@ -4730,923 +5746,963 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>89</v>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>77.5</v>
+        <v>50</v>
       </c>
       <c r="D65">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>47.5</v>
+      </c>
+      <c r="D66">
         <v>56</v>
       </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66">
-        <v>72.5</v>
-      </c>
-      <c r="D66">
-        <v>60</v>
-      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>134</v>
+      <c r="A67" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="D67">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>115</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>72.5</v>
+        <v>52.5</v>
       </c>
       <c r="D68">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>50</v>
       </c>
       <c r="D69">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>98</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>67.5</v>
+        <v>65</v>
       </c>
       <c r="D70">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D71">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>94</v>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>37.5</v>
+      </c>
+      <c r="D72">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>40</v>
+      </c>
+      <c r="D73">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>40</v>
+      </c>
+      <c r="D74">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>40</v>
+      </c>
+      <c r="D75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>67.5</v>
+      </c>
+      <c r="D76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>52.5</v>
+      </c>
+      <c r="D77">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>35</v>
+      </c>
+      <c r="D78">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>37.5</v>
+      </c>
+      <c r="D79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80">
+        <v>72.5</v>
+      </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>37.5</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>40</v>
+      </c>
+      <c r="D82">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>52.5</v>
+      </c>
+      <c r="D83">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C72">
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>55</v>
+      </c>
+      <c r="D84">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>65</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>52.5</v>
+      </c>
+      <c r="D86">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87">
         <v>32.5</v>
       </c>
-      <c r="D72">
+      <c r="D87">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>52.5</v>
+      </c>
+      <c r="D88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>55</v>
+      </c>
+      <c r="D89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+      <c r="D90">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>40</v>
+      </c>
+      <c r="D92">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>50</v>
+      </c>
+      <c r="D93">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>40</v>
+      </c>
+      <c r="D94">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>45</v>
+      </c>
+      <c r="D95">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>42.5</v>
+      </c>
+      <c r="D96">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
         <v>55</v>
       </c>
-      <c r="D73">
+      <c r="D97">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>27.5</v>
+      </c>
+      <c r="D98">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>52.5</v>
+      </c>
+      <c r="D99">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>47.5</v>
+      </c>
+      <c r="D100">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
+      </c>
+      <c r="D101">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>35</v>
+      </c>
+      <c r="D102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>55</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>95</v>
+      </c>
+      <c r="D105">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>55</v>
+      </c>
+      <c r="D106">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>65</v>
+      </c>
+      <c r="D107">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <v>67.5</v>
+      </c>
+      <c r="D108">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>42.5</v>
+      </c>
+      <c r="D109">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>60</v>
+      </c>
+      <c r="D110">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>45</v>
+      </c>
+      <c r="D111">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>55</v>
+      </c>
+      <c r="D112">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>45</v>
+      </c>
+      <c r="D113">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>55</v>
+      </c>
+      <c r="D114">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>45</v>
+      </c>
+      <c r="D115">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+      <c r="D116">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>57.5</v>
+      </c>
+      <c r="D117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>70</v>
+      </c>
+      <c r="D118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>47.5</v>
+      </c>
+      <c r="D119">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>52.5</v>
+      </c>
+      <c r="D120">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>60</v>
-      </c>
-      <c r="D74">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>45</v>
+      </c>
+      <c r="D121">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>62.5</v>
+      </c>
+      <c r="D122">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123">
+        <v>32.5</v>
+      </c>
+      <c r="D123">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>65</v>
+      </c>
+      <c r="D124">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>57.5</v>
+      </c>
+      <c r="D125">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>57.5</v>
+      </c>
+      <c r="D126">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>72.5</v>
+      </c>
+      <c r="D127">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <v>47.5</v>
+      </c>
+      <c r="D128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129">
+        <v>42.5</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>32.5</v>
+      </c>
+      <c r="D130">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131">
         <v>50</v>
       </c>
-      <c r="D75">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76">
-        <v>70</v>
-      </c>
-      <c r="D76">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77">
-        <v>57.5</v>
-      </c>
-      <c r="D77">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78">
-        <v>82.5</v>
-      </c>
-      <c r="D78">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79">
-        <v>47.5</v>
-      </c>
-      <c r="D79">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80">
-        <v>40</v>
-      </c>
-      <c r="D80">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81">
-        <v>55</v>
-      </c>
-      <c r="D81">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82">
-        <v>62.5</v>
-      </c>
-      <c r="D82">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83">
-        <v>60</v>
-      </c>
-      <c r="D83">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84">
-        <v>60</v>
-      </c>
-      <c r="D84">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85">
-        <v>42.5</v>
-      </c>
-      <c r="D85">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86">
-        <v>62.5</v>
-      </c>
-      <c r="D86">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87">
-        <v>37.5</v>
-      </c>
-      <c r="D87">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88">
-        <v>55</v>
-      </c>
-      <c r="D88">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89">
-        <v>47.5</v>
-      </c>
-      <c r="D89">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90">
-        <v>40</v>
-      </c>
-      <c r="D90">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91">
-        <v>55</v>
-      </c>
-      <c r="D91">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92">
-        <v>42.5</v>
-      </c>
-      <c r="D92">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93">
-        <v>35</v>
-      </c>
-      <c r="D93">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94">
-        <v>42.5</v>
-      </c>
-      <c r="D94">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95">
-        <v>52.5</v>
-      </c>
-      <c r="D95">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96">
-        <v>57.5</v>
-      </c>
-      <c r="D96">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97">
-        <v>35</v>
-      </c>
-      <c r="D97">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98">
-        <v>35</v>
-      </c>
-      <c r="D98">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99">
-        <v>65</v>
-      </c>
-      <c r="D99">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>124</v>
-      </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100">
-        <v>32.5</v>
-      </c>
-      <c r="D100">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101">
+      <c r="D131">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132">
         <v>30</v>
       </c>
-      <c r="D101">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102">
-        <v>25</v>
-      </c>
-      <c r="D102">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103">
-        <v>70</v>
-      </c>
-      <c r="D103">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>126</v>
-      </c>
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104">
-        <v>25</v>
-      </c>
-      <c r="D104">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105">
-        <v>70</v>
-      </c>
-      <c r="D105">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>93</v>
-      </c>
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106">
-        <v>70</v>
-      </c>
-      <c r="D106">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107">
-        <v>52.5</v>
-      </c>
-      <c r="D107">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>71</v>
-      </c>
-      <c r="B108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108">
-        <v>45</v>
-      </c>
-      <c r="D108">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109">
-        <v>52.5</v>
-      </c>
-      <c r="D109">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110">
-        <v>45</v>
-      </c>
-      <c r="D110">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111">
-        <v>42.5</v>
-      </c>
-      <c r="D111">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112">
-        <v>27.5</v>
-      </c>
-      <c r="D112">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113">
-        <v>37.5</v>
-      </c>
-      <c r="D113">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>68</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114">
-        <v>42.5</v>
-      </c>
-      <c r="D114">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>128</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115">
-        <v>30</v>
-      </c>
-      <c r="D115">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116">
-        <v>27.5</v>
-      </c>
-      <c r="D116">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117">
-        <v>45</v>
-      </c>
-      <c r="D117">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>138</v>
-      </c>
-      <c r="B118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118">
-        <v>45</v>
-      </c>
-      <c r="D118">
+      <c r="D132">
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119">
-        <v>50</v>
-      </c>
-      <c r="D119">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120">
-        <v>62.5</v>
-      </c>
-      <c r="D120">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>109</v>
-      </c>
-      <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121">
-        <v>50</v>
-      </c>
-      <c r="D121">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122">
-        <v>52.5</v>
-      </c>
-      <c r="D122">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>139</v>
-      </c>
-      <c r="B123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123">
-        <v>42.5</v>
-      </c>
-      <c r="D123">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124">
-        <v>27.5</v>
-      </c>
-      <c r="D124">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>107</v>
-      </c>
-      <c r="B125" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125">
-        <v>42.5</v>
-      </c>
-      <c r="D125">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>105</v>
-      </c>
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126">
-        <v>60</v>
-      </c>
-      <c r="D126">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>121</v>
-      </c>
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127">
-        <v>80</v>
-      </c>
-      <c r="D127">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>122</v>
-      </c>
-      <c r="B128" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128">
-        <v>45</v>
-      </c>
-      <c r="D128">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129">
-        <v>40</v>
-      </c>
-      <c r="D129">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D129" xr:uid="{C8037E90-D56C-4A6A-AB5A-19EB98AA2A67}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="일산"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:D125" xr:uid="{C8037E90-D56C-4A6A-AB5A-19EB98AA2A67}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D132">
+      <sortCondition ref="B1:B125"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
